--- a/Portfolio_2D/Assets/05. DataTable/MapDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/MapDataTable.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55456E1C-C167-445D-B7CC-F82A836DBD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MapData" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,29 +55,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>EnemyUnit_2_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyUnit_3_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyUnit_4_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyUnit_5_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>EnemyUnit_1_ID</t>
-  </si>
-  <si>
-    <t>EnemyUnit_2_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyUnit_3_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyUnit_4_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyUnit_5_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyUnit_1_Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyUnit_1_Grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyUnit_2_Grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyUnit_2_Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyUnit_3_Grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyUnit_3_Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyUnit_4_Grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyUnit_4_Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyUnit_5_Grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyUnit_5_Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,20 +443,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="25.375" style="1" customWidth="1"/>
     <col min="3" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,8 +479,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>500</v>
       </c>
@@ -454,6 +504,9 @@
       </c>
       <c r="G2" s="1">
         <v>-1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -464,40 +517,84 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="C1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>5000</v>
       </c>
@@ -505,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>-1</v>
@@ -516,8 +613,38 @@
       <c r="F2" s="1">
         <v>-1</v>
       </c>
+      <c r="G2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>5001</v>
       </c>
@@ -525,19 +652,49 @@
         <v>100</v>
       </c>
       <c r="C3" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>-1</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P3" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5002</v>
       </c>
@@ -545,19 +702,49 @@
         <v>100</v>
       </c>
       <c r="C4" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>-1</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>100</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P4" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>5003</v>
       </c>
@@ -565,19 +752,49 @@
         <v>100</v>
       </c>
       <c r="C5" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
       </c>
       <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>100</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>100</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P5" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5004</v>
       </c>
@@ -585,16 +802,46 @@
         <v>100</v>
       </c>
       <c r="C6" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
       </c>
       <c r="F6" s="1">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>100</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>100</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>100</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio_2D/Assets/05. DataTable/MapDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/MapDataTable.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55456E1C-C167-445D-B7CC-F82A836DBD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MapData" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,13 +115,17 @@
   </si>
   <si>
     <t>EnemyUnit_5_Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>막장 숲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,11 +446,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -509,6 +512,32 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>501</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5004</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5005</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5006</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5007</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -517,11 +546,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="C1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -844,6 +873,156 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5005</v>
+      </c>
+      <c r="B7" s="1">
+        <v>101</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>102</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>100</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>100</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>100</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5006</v>
+      </c>
+      <c r="B8" s="1">
+        <v>101</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>102</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>103</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>104</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>100</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>5007</v>
+      </c>
+      <c r="B9" s="1">
+        <v>101</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>102</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>102</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>104</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Portfolio_2D/Assets/05. DataTable/MapDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/MapDataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="MapData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신성한 숲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EnemyUnit_2_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,7 +114,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>막장 숲</t>
+    <t>isExternalMap</t>
+  </si>
+  <si>
+    <t>신성한 숲 (4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성한 숲 (3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성한 숲 (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성한 숲 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외전 (1-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외전 (2-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외전 (3-1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,94 +470,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.375" style="1" customWidth="1"/>
-    <col min="3" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="25.375" style="1" customWidth="1"/>
+    <col min="4" max="8" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>500</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1">
         <v>5000</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>5001</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>5002</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>5003</v>
       </c>
-      <c r="G2" s="1">
-        <v>-1</v>
-      </c>
       <c r="H2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>501</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5004</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5005</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5006</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5007</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>502</v>
+      </c>
+      <c r="B4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5004</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5005</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5006</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5007</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>503</v>
+      </c>
+      <c r="B5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D5" s="1">
         <v>5004</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E5" s="1">
         <v>5005</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F5" s="1">
         <v>5006</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G5" s="1">
         <v>5007</v>
       </c>
-      <c r="G3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="H5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>600</v>
+      </c>
+      <c r="B6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5004</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5005</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5006</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5007</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>601</v>
+      </c>
+      <c r="B7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5004</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5005</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5006</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5007</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>602</v>
+      </c>
+      <c r="B8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5004</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5005</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5006</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5007</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="1">
         <v>5</v>
       </c>
     </row>
@@ -549,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -578,49 +755,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">

--- a/Portfolio_2D/Assets/05. DataTable/MapDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/MapDataTable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,58 @@
   <si>
     <t>외전 (3-1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experienceValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyUnit_1_LootItemID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyUnit_1_LootItemMinCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyUnit_1_LootItemMaxCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyUnit_2_LootItemID</t>
+  </si>
+  <si>
+    <t>EnemyUnit_2_LootItemMinCount</t>
+  </si>
+  <si>
+    <t>EnemyUnit_2_LootItemMaxCount</t>
+  </si>
+  <si>
+    <t>EnemyUnit_3_LootItemID</t>
+  </si>
+  <si>
+    <t>EnemyUnit_3_LootItemMinCount</t>
+  </si>
+  <si>
+    <t>EnemyUnit_3_LootItemMaxCount</t>
+  </si>
+  <si>
+    <t>EnemyUnit_4_LootItemID</t>
+  </si>
+  <si>
+    <t>EnemyUnit_4_LootItemMinCount</t>
+  </si>
+  <si>
+    <t>EnemyUnit_4_LootItemMaxCount</t>
+  </si>
+  <si>
+    <t>EnemyUnit_5_LootItemID</t>
+  </si>
+  <si>
+    <t>EnemyUnit_5_LootItemMinCount</t>
+  </si>
+  <si>
+    <t>EnemyUnit_5_LootItemMaxCount</t>
   </si>
 </sst>
 </file>
@@ -470,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -481,9 +533,10 @@
     <col min="1" max="3" width="25.375" style="1" customWidth="1"/>
     <col min="4" max="8" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,8 +564,11 @@
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>500</v>
       </c>
@@ -526,13 +582,13 @@
         <v>5000</v>
       </c>
       <c r="E2" s="1">
-        <v>5001</v>
+        <v>-1</v>
       </c>
       <c r="F2" s="1">
-        <v>5002</v>
+        <v>-1</v>
       </c>
       <c r="G2" s="1">
-        <v>5003</v>
+        <v>-1</v>
       </c>
       <c r="H2" s="1">
         <v>-1</v>
@@ -540,8 +596,11 @@
       <c r="I2" s="1">
         <v>5</v>
       </c>
+      <c r="J2" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>501</v>
       </c>
@@ -569,8 +628,11 @@
       <c r="I3" s="1">
         <v>5</v>
       </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>502</v>
       </c>
@@ -598,8 +660,11 @@
       <c r="I4" s="1">
         <v>5</v>
       </c>
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>503</v>
       </c>
@@ -627,8 +692,11 @@
       <c r="I5" s="1">
         <v>5</v>
       </c>
+      <c r="J5" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>600</v>
       </c>
@@ -656,8 +724,11 @@
       <c r="I6" s="1">
         <v>5</v>
       </c>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>601</v>
       </c>
@@ -685,8 +756,11 @@
       <c r="I7" s="1">
         <v>5</v>
       </c>
+      <c r="J7" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>602</v>
       </c>
@@ -713,6 +787,9 @@
       </c>
       <c r="I8" s="1">
         <v>5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -724,33 +801,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:AE9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="A2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="26" width="15.625" style="1" customWidth="1"/>
+    <col min="27" max="28" width="15.625" customWidth="1"/>
+    <col min="29" max="31" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,43 +828,88 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="AC1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>5000</v>
       </c>
@@ -814,13 +923,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>-1</v>
+        <v>2000</v>
       </c>
       <c r="F2" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
         <v>-1</v>
@@ -849,8 +958,53 @@
       <c r="P2" s="1">
         <v>-1</v>
       </c>
+      <c r="Q2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>5001</v>
       </c>
@@ -864,22 +1018,22 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>-1</v>
+        <v>100</v>
       </c>
       <c r="I3" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
         <v>-1</v>
@@ -899,8 +1053,53 @@
       <c r="P3" s="1">
         <v>-1</v>
       </c>
+      <c r="Q3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5002</v>
       </c>
@@ -914,10 +1113,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -941,16 +1140,61 @@
         <v>-1</v>
       </c>
       <c r="N4" s="1">
-        <v>-1</v>
+        <v>100</v>
       </c>
       <c r="O4" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AE4" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>5003</v>
       </c>
@@ -964,10 +1208,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -982,25 +1226,70 @@
         <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="L5" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M5" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N5" s="1">
-        <v>-1</v>
+        <v>100</v>
       </c>
       <c r="O5" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>100</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AE5" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5004</v>
       </c>
@@ -1014,10 +1303,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1032,13 +1321,13 @@
         <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="L6" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M6" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N6" s="1">
         <v>100</v>
@@ -1049,8 +1338,53 @@
       <c r="P6" s="1">
         <v>1</v>
       </c>
+      <c r="Q6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>100</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>100</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5005</v>
       </c>
@@ -1064,17 +1398,17 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>102</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>100</v>
-      </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
@@ -1082,13 +1416,13 @@
         <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N7" s="1">
         <v>100</v>
@@ -1099,8 +1433,53 @@
       <c r="P7" s="1">
         <v>1</v>
       </c>
+      <c r="Q7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>100</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>100</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5006</v>
       </c>
@@ -1114,43 +1493,88 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
         <v>102</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="1">
         <v>103</v>
       </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="1">
         <v>104</v>
       </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1">
-        <v>100</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1</v>
+      <c r="U8" s="1">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5007</v>
       </c>
@@ -1164,40 +1588,85 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="1">
+        <v>100</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="1">
         <v>102</v>
       </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T9" s="1">
         <v>102</v>
       </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1">
+      <c r="U9" s="1">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z9" s="1">
         <v>104</v>
       </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1</v>
+      <c r="AA9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio_2D/Assets/05. DataTable/MapDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/MapDataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MapData" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="A2:G16"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -932,76 +932,76 @@
         <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>-1</v>
+        <v>100</v>
       </c>
       <c r="I2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>-1</v>
+        <v>2000</v>
       </c>
       <c r="L2" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N2" s="1">
-        <v>-1</v>
+        <v>100</v>
       </c>
       <c r="O2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>-1</v>
+        <v>2000</v>
       </c>
       <c r="R2" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T2" s="1">
-        <v>-1</v>
+        <v>100</v>
       </c>
       <c r="U2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W2" s="1">
-        <v>-1</v>
+        <v>2000</v>
       </c>
       <c r="X2" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="1">
-        <v>-1</v>
+        <v>100</v>
       </c>
       <c r="AA2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="1">
-        <v>-1</v>
+        <v>2000</v>
       </c>
       <c r="AD2" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">

--- a/Portfolio_2D/Assets/05. DataTable/MapDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/MapDataTable.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F432C645-9688-4BC2-82C3-2DFCC1135163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MapData" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,12 +196,16 @@
   </si>
   <si>
     <t>EnemyUnit_5_LootItemMaxCount</t>
+  </si>
+  <si>
+    <t>getGoldValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -521,11 +526,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -534,9 +539,10 @@
     <col min="4" max="8" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,8 +573,11 @@
       <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>500</v>
       </c>
@@ -599,8 +608,11 @@
       <c r="J2" s="1">
         <v>10</v>
       </c>
+      <c r="K2" s="1">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>501</v>
       </c>
@@ -631,8 +643,11 @@
       <c r="J3" s="1">
         <v>10</v>
       </c>
+      <c r="K3" s="1">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>502</v>
       </c>
@@ -663,8 +678,11 @@
       <c r="J4" s="1">
         <v>10</v>
       </c>
+      <c r="K4" s="1">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>503</v>
       </c>
@@ -695,8 +713,11 @@
       <c r="J5" s="1">
         <v>10</v>
       </c>
+      <c r="K5" s="1">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>600</v>
       </c>
@@ -727,8 +748,11 @@
       <c r="J6" s="1">
         <v>10</v>
       </c>
+      <c r="K6" s="1">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>601</v>
       </c>
@@ -759,8 +783,11 @@
       <c r="J7" s="1">
         <v>10</v>
       </c>
+      <c r="K7" s="1">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>602</v>
       </c>
@@ -790,6 +817,9 @@
       </c>
       <c r="J8" s="1">
         <v>10</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -800,10 +830,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Z2" sqref="Z2:AE2"/>
     </sheetView>
   </sheetViews>

--- a/Portfolio_2D/Assets/05. DataTable/MapDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/MapDataTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F432C645-9688-4BC2-82C3-2DFCC1135163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64E06EB-823A-4FB1-9290-578F587F54F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -230,10 +230,59 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -242,11 +291,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -530,7 +598,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -591,16 +659,16 @@
         <v>5000</v>
       </c>
       <c r="E2" s="1">
-        <v>-1</v>
+        <v>5001</v>
       </c>
       <c r="F2" s="1">
-        <v>-1</v>
+        <v>5002</v>
       </c>
       <c r="G2" s="1">
-        <v>-1</v>
+        <v>5003</v>
       </c>
       <c r="H2" s="1">
-        <v>-1</v>
+        <v>5004</v>
       </c>
       <c r="I2" s="1">
         <v>5</v>
@@ -623,16 +691,16 @@
         <v>26</v>
       </c>
       <c r="D3" s="1">
-        <v>5004</v>
+        <v>5005</v>
       </c>
       <c r="E3" s="1">
-        <v>5005</v>
+        <v>-1</v>
       </c>
       <c r="F3" s="1">
-        <v>5006</v>
+        <v>-1</v>
       </c>
       <c r="G3" s="1">
-        <v>5007</v>
+        <v>-1</v>
       </c>
       <c r="H3" s="1">
         <v>-1</v>
@@ -658,16 +726,16 @@
         <v>25</v>
       </c>
       <c r="D4" s="1">
-        <v>5004</v>
+        <v>5006</v>
       </c>
       <c r="E4" s="1">
-        <v>5005</v>
+        <v>-1</v>
       </c>
       <c r="F4" s="1">
-        <v>5006</v>
+        <v>-1</v>
       </c>
       <c r="G4" s="1">
-        <v>5007</v>
+        <v>-1</v>
       </c>
       <c r="H4" s="1">
         <v>-1</v>
@@ -696,13 +764,13 @@
         <v>5004</v>
       </c>
       <c r="E5" s="1">
-        <v>5005</v>
+        <v>-1</v>
       </c>
       <c r="F5" s="1">
-        <v>5006</v>
+        <v>-1</v>
       </c>
       <c r="G5" s="1">
-        <v>5007</v>
+        <v>-1</v>
       </c>
       <c r="H5" s="1">
         <v>-1</v>
@@ -731,13 +799,13 @@
         <v>5004</v>
       </c>
       <c r="E6" s="1">
-        <v>5005</v>
+        <v>-1</v>
       </c>
       <c r="F6" s="1">
-        <v>5006</v>
+        <v>-1</v>
       </c>
       <c r="G6" s="1">
-        <v>5007</v>
+        <v>-1</v>
       </c>
       <c r="H6" s="1">
         <v>-1</v>
@@ -766,13 +834,13 @@
         <v>5004</v>
       </c>
       <c r="E7" s="1">
-        <v>5005</v>
+        <v>-1</v>
       </c>
       <c r="F7" s="1">
-        <v>5006</v>
+        <v>-1</v>
       </c>
       <c r="G7" s="1">
-        <v>5007</v>
+        <v>-1</v>
       </c>
       <c r="H7" s="1">
         <v>-1</v>
@@ -801,13 +869,13 @@
         <v>5004</v>
       </c>
       <c r="E8" s="1">
-        <v>5005</v>
+        <v>-1</v>
       </c>
       <c r="F8" s="1">
-        <v>5006</v>
+        <v>-1</v>
       </c>
       <c r="G8" s="1">
-        <v>5007</v>
+        <v>-1</v>
       </c>
       <c r="H8" s="1">
         <v>-1</v>
@@ -831,111 +899,125 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE9"/>
+  <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:AE2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7:AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="26" width="15.625" style="1" customWidth="1"/>
-    <col min="27" max="28" width="15.625" customWidth="1"/>
-    <col min="29" max="31" width="15.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="6" customWidth="1"/>
+    <col min="3" max="6" width="8" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8" style="7" customWidth="1"/>
+    <col min="8" max="8" width="8" style="6" customWidth="1"/>
+    <col min="9" max="12" width="8" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8" style="7" customWidth="1"/>
+    <col min="14" max="14" width="8" style="6" customWidth="1"/>
+    <col min="15" max="18" width="8" style="2" customWidth="1"/>
+    <col min="19" max="19" width="8" style="7" customWidth="1"/>
+    <col min="20" max="20" width="8" style="6" customWidth="1"/>
+    <col min="21" max="24" width="8" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8" style="7" customWidth="1"/>
+    <col min="26" max="26" width="8" style="6" customWidth="1"/>
+    <col min="27" max="28" width="8" style="8" customWidth="1"/>
+    <col min="29" max="30" width="8" style="2" customWidth="1"/>
+    <col min="31" max="31" width="8" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -943,189 +1025,189 @@
       <c r="A2" s="1">
         <v>5000</v>
       </c>
-      <c r="B2" s="1">
-        <v>100</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="B2" s="6">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
         <v>2000</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>100</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1">
-        <v>100</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>1</v>
-      </c>
-      <c r="T2" s="1">
-        <v>100</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1</v>
-      </c>
-      <c r="V2" s="1">
-        <v>1</v>
-      </c>
-      <c r="W2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>100</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>1</v>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N2" s="6">
+        <v>-1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S2" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T2" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="V2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="W2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="X2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>5001</v>
       </c>
-      <c r="B3" s="1">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="B3" s="6">
+        <v>101</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
         <v>2000</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>100</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="U3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE3" s="1">
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S3" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="V3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="W3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="X3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE3" s="7">
         <v>-1</v>
       </c>
     </row>
@@ -1133,94 +1215,94 @@
       <c r="A4" s="1">
         <v>5002</v>
       </c>
-      <c r="B4" s="1">
-        <v>100</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="B4" s="6">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
         <v>2000</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>100</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N4" s="1">
-        <v>100</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="U4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE4" s="1">
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S4" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="V4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="W4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="X4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE4" s="7">
         <v>-1</v>
       </c>
     </row>
@@ -1228,94 +1310,94 @@
       <c r="A5" s="1">
         <v>5003</v>
       </c>
-      <c r="B5" s="1">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="B5" s="6">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
         <v>2000</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>100</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N5" s="1">
-        <v>100</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T5" s="1">
-        <v>100</v>
-      </c>
-      <c r="U5" s="1">
-        <v>1</v>
-      </c>
-      <c r="V5" s="1">
-        <v>1</v>
-      </c>
-      <c r="W5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE5" s="1">
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="V5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="W5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="X5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE5" s="7">
         <v>-1</v>
       </c>
     </row>
@@ -1323,94 +1405,94 @@
       <c r="A6" s="1">
         <v>5004</v>
       </c>
-      <c r="B6" s="1">
-        <v>100</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="B6" s="6">
+        <v>104</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
         <v>2000</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>100</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>100</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T6" s="1">
-        <v>100</v>
-      </c>
-      <c r="U6" s="1">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1">
-        <v>1</v>
-      </c>
-      <c r="W6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>100</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE6" s="1">
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S6" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="V6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="W6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="X6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE6" s="7">
         <v>-1</v>
       </c>
     </row>
@@ -1418,189 +1500,189 @@
       <c r="A7" s="1">
         <v>5005</v>
       </c>
-      <c r="B7" s="1">
-        <v>101</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="B7" s="6">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
         <v>2000</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>102</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N7" s="1">
-        <v>100</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T7" s="1">
-        <v>100</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1</v>
-      </c>
-      <c r="V7" s="1">
-        <v>1</v>
-      </c>
-      <c r="W7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>100</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>-1</v>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>100</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6">
+        <v>100</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <v>1</v>
+      </c>
+      <c r="T7" s="6">
+        <v>100</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1</v>
+      </c>
+      <c r="W7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>100</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5006</v>
       </c>
-      <c r="B8" s="1">
-        <v>101</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="B8" s="6">
+        <v>100</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
         <v>2000</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>102</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N8" s="1">
-        <v>103</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T8" s="1">
-        <v>104</v>
-      </c>
-      <c r="U8" s="1">
-        <v>1</v>
-      </c>
-      <c r="V8" s="1">
-        <v>1</v>
-      </c>
-      <c r="W8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>100</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE8" s="1">
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>100</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="V8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="W8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="X8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE8" s="7">
         <v>-1</v>
       </c>
     </row>
@@ -1608,94 +1690,569 @@
       <c r="A9" s="1">
         <v>5007</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
+        <v>100</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>100</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="6">
+        <v>100</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S9" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="V9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="W9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="X9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>5008</v>
+      </c>
+      <c r="B10" s="6">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>100</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="6">
+        <v>100</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S10" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T10" s="6">
+        <v>100</v>
+      </c>
+      <c r="U10" s="2">
+        <v>1</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1</v>
+      </c>
+      <c r="W10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="X10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B11" s="6">
+        <v>100</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>100</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="6">
+        <v>100</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="6">
+        <v>100</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1</v>
+      </c>
+      <c r="W11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="X11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>100</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>5010</v>
+      </c>
+      <c r="B12" s="6">
         <v>101</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
         <v>2000</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F12" s="2">
         <v>0</v>
       </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>100</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N9" s="1">
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
         <v>102</v>
       </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T9" s="1">
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="6">
+        <v>100</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T12" s="6">
+        <v>100</v>
+      </c>
+      <c r="U12" s="2">
+        <v>1</v>
+      </c>
+      <c r="V12" s="2">
+        <v>1</v>
+      </c>
+      <c r="W12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="X12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE12" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>5011</v>
+      </c>
+      <c r="B13" s="6">
+        <v>101</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
         <v>102</v>
       </c>
-      <c r="U9" s="1">
-        <v>1</v>
-      </c>
-      <c r="V9" s="1">
-        <v>1</v>
-      </c>
-      <c r="W9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Z9" s="1">
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="6">
+        <v>103</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S13" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="6">
         <v>104</v>
       </c>
-      <c r="AA9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE9" s="1">
+      <c r="U13" s="2">
+        <v>1</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1</v>
+      </c>
+      <c r="W13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="X13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>100</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>5012</v>
+      </c>
+      <c r="B14" s="6">
+        <v>101</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <v>100</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="6">
+        <v>102</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T14" s="6">
+        <v>102</v>
+      </c>
+      <c r="U14" s="2">
+        <v>1</v>
+      </c>
+      <c r="V14" s="2">
+        <v>1</v>
+      </c>
+      <c r="W14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="X14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>104</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE14" s="7">
         <v>-1</v>
       </c>
     </row>

--- a/Portfolio_2D/Assets/05. DataTable/MapDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/MapDataTable.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64E06EB-823A-4FB1-9290-578F587F54F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="MapData" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,13 +198,17 @@
   </si>
   <si>
     <t>getGoldValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트용맵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -594,11 +597,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -890,6 +893,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>999</v>
+      </c>
+      <c r="B9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>10</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -898,11 +936,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7:AE7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2256,6 +2294,101 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>5999</v>
+      </c>
+      <c r="B15" s="6">
+        <v>100</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S15" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="V15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="W15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="X15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE15" s="7">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Portfolio_2D/Assets/05. DataTable/MapDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/MapDataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MapData" sheetId="1" r:id="rId1"/>
@@ -600,7 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2317,13 +2317,13 @@
         <v>-1</v>
       </c>
       <c r="H15" s="6">
-        <v>-1</v>
+        <v>101</v>
       </c>
       <c r="I15" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J15" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2">
         <v>-1</v>
@@ -2331,7 +2331,7 @@
       <c r="L15" s="2">
         <v>-1</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="2">
         <v>-1</v>
       </c>
       <c r="N15" s="6">

--- a/Portfolio_2D/Assets/05. DataTable/MapDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/MapDataTable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1922CD1-880D-41C3-8EB0-E66A5FE2F979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F67C13-4644-4020-A63C-76173F3AF762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MapData" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,9 @@
   <si>
     <t>테스트용맵</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userExperienceValue</t>
   </si>
 </sst>
 </file>
@@ -595,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -608,9 +611,10 @@
     <col min="9" max="9" width="14.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,8 +648,11 @@
       <c r="K1" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>500</v>
       </c>
@@ -679,8 +686,11 @@
       <c r="K2" s="1">
         <v>1000</v>
       </c>
+      <c r="L2" s="1">
+        <v>500</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>501</v>
       </c>
@@ -714,8 +724,11 @@
       <c r="K3" s="1">
         <v>2000</v>
       </c>
+      <c r="L3" s="1">
+        <v>500</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>502</v>
       </c>
@@ -749,8 +762,11 @@
       <c r="K4" s="1">
         <v>1000</v>
       </c>
+      <c r="L4" s="1">
+        <v>500</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>503</v>
       </c>
@@ -784,8 +800,11 @@
       <c r="K5" s="1">
         <v>2000</v>
       </c>
+      <c r="L5" s="1">
+        <v>500</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>600</v>
       </c>
@@ -819,8 +838,11 @@
       <c r="K6" s="1">
         <v>1000</v>
       </c>
+      <c r="L6" s="1">
+        <v>500</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>601</v>
       </c>
@@ -854,8 +876,11 @@
       <c r="K7" s="1">
         <v>2000</v>
       </c>
+      <c r="L7" s="1">
+        <v>500</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>602</v>
       </c>
@@ -889,8 +914,11 @@
       <c r="K8" s="1">
         <v>1000</v>
       </c>
+      <c r="L8" s="1">
+        <v>500</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>999</v>
       </c>
@@ -923,6 +951,9 @@
       </c>
       <c r="K9" s="1">
         <v>2000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -936,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>

--- a/Portfolio_2D/Assets/05. DataTable/MapDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/MapDataTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F67C13-4644-4020-A63C-76173F3AF762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DA5386-BB17-4EBF-A4B4-374741951924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,54 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EnemyUnit_1_LootItemID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyUnit_1_LootItemMinCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyUnit_1_LootItemMaxCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyUnit_2_LootItemID</t>
-  </si>
-  <si>
-    <t>EnemyUnit_2_LootItemMinCount</t>
-  </si>
-  <si>
-    <t>EnemyUnit_2_LootItemMaxCount</t>
-  </si>
-  <si>
-    <t>EnemyUnit_3_LootItemID</t>
-  </si>
-  <si>
-    <t>EnemyUnit_3_LootItemMinCount</t>
-  </si>
-  <si>
-    <t>EnemyUnit_3_LootItemMaxCount</t>
-  </si>
-  <si>
-    <t>EnemyUnit_4_LootItemID</t>
-  </si>
-  <si>
-    <t>EnemyUnit_4_LootItemMinCount</t>
-  </si>
-  <si>
-    <t>EnemyUnit_4_LootItemMaxCount</t>
-  </si>
-  <si>
-    <t>EnemyUnit_5_LootItemID</t>
-  </si>
-  <si>
-    <t>EnemyUnit_5_LootItemMinCount</t>
-  </si>
-  <si>
-    <t>EnemyUnit_5_LootItemMaxCount</t>
-  </si>
-  <si>
     <t>getGoldValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,6 +159,12 @@
   </si>
   <si>
     <t>userExperienceValue</t>
+  </si>
+  <si>
+    <t>lootingTableName</t>
+  </si>
+  <si>
+    <t>testLootTable</t>
   </si>
 </sst>
 </file>
@@ -237,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -266,17 +224,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -285,20 +232,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -310,12 +248,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -598,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L9"/>
+      <selection activeCell="M3" sqref="M3:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -612,9 +544,10 @@
     <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,13 +579,16 @@
         <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>500</v>
       </c>
@@ -689,8 +625,11 @@
       <c r="L2" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>501</v>
       </c>
@@ -727,8 +666,11 @@
       <c r="L3" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>502</v>
       </c>
@@ -765,8 +707,11 @@
       <c r="L4" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>503</v>
       </c>
@@ -803,8 +748,11 @@
       <c r="L5" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>600</v>
       </c>
@@ -841,8 +789,11 @@
       <c r="L6" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>601</v>
       </c>
@@ -879,8 +830,11 @@
       <c r="L7" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>602</v>
       </c>
@@ -917,8 +871,11 @@
       <c r="L8" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>999</v>
       </c>
@@ -926,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1">
         <v>5999</v>
@@ -954,6 +911,9 @@
       </c>
       <c r="L9" s="1">
         <v>500</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -965,34 +925,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="Q1" sqref="Q1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="5" customWidth="1"/>
-    <col min="3" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="6" customWidth="1"/>
-    <col min="8" max="8" width="8" style="5" customWidth="1"/>
-    <col min="9" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8" style="6" customWidth="1"/>
-    <col min="14" max="14" width="8" style="5" customWidth="1"/>
-    <col min="15" max="18" width="8" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8" style="6" customWidth="1"/>
-    <col min="20" max="20" width="8" style="5" customWidth="1"/>
-    <col min="21" max="24" width="8" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8" style="5" customWidth="1"/>
-    <col min="27" max="28" width="8" customWidth="1"/>
-    <col min="29" max="30" width="8" style="1" customWidth="1"/>
-    <col min="31" max="31" width="8" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8" style="4" customWidth="1"/>
+    <col min="3" max="4" width="8" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="4" customWidth="1"/>
+    <col min="6" max="7" width="8" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="4" customWidth="1"/>
+    <col min="9" max="10" width="8" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="4" customWidth="1"/>
+    <col min="12" max="13" width="8" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="4" customWidth="1"/>
+    <col min="15" max="16" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,93 +959,48 @@
       <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>32</v>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>37</v>
+        <v>19</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>5000</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>100</v>
       </c>
       <c r="C2" s="1">
@@ -1100,16 +1009,16 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <v>2000</v>
+      <c r="E2" s="4">
+        <v>-1</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="4">
         <v>-1</v>
       </c>
       <c r="I2" s="1">
@@ -1118,16 +1027,16 @@
       <c r="J2" s="1">
         <v>-1</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>-1</v>
       </c>
       <c r="L2" s="1">
         <v>-1</v>
       </c>
-      <c r="M2" s="6">
-        <v>-1</v>
-      </c>
-      <c r="N2" s="5">
+      <c r="M2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N2" s="4">
         <v>-1</v>
       </c>
       <c r="O2" s="1">
@@ -1136,57 +1045,12 @@
       <c r="P2" s="1">
         <v>-1</v>
       </c>
-      <c r="Q2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S2" s="6">
-        <v>-1</v>
-      </c>
-      <c r="T2" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>-1</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE2" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>5001</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>101</v>
       </c>
       <c r="C3" s="1">
@@ -1195,16 +1059,16 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <v>2000</v>
+      <c r="E3" s="4">
+        <v>-1</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="4">
         <v>-1</v>
       </c>
       <c r="I3" s="1">
@@ -1213,16 +1077,16 @@
       <c r="J3" s="1">
         <v>-1</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>-1</v>
       </c>
       <c r="L3" s="1">
         <v>-1</v>
       </c>
-      <c r="M3" s="6">
-        <v>-1</v>
-      </c>
-      <c r="N3" s="5">
+      <c r="M3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="4">
         <v>-1</v>
       </c>
       <c r="O3" s="1">
@@ -1231,57 +1095,12 @@
       <c r="P3" s="1">
         <v>-1</v>
       </c>
-      <c r="Q3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S3" s="6">
-        <v>-1</v>
-      </c>
-      <c r="T3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>-1</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE3" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5002</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>102</v>
       </c>
       <c r="C4" s="1">
@@ -1290,16 +1109,16 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
-        <v>2000</v>
+      <c r="E4" s="4">
+        <v>-1</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="4">
         <v>-1</v>
       </c>
       <c r="I4" s="1">
@@ -1308,16 +1127,16 @@
       <c r="J4" s="1">
         <v>-1</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>-1</v>
       </c>
       <c r="L4" s="1">
         <v>-1</v>
       </c>
-      <c r="M4" s="6">
-        <v>-1</v>
-      </c>
-      <c r="N4" s="5">
+      <c r="M4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="4">
         <v>-1</v>
       </c>
       <c r="O4" s="1">
@@ -1326,57 +1145,12 @@
       <c r="P4" s="1">
         <v>-1</v>
       </c>
-      <c r="Q4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S4" s="6">
-        <v>-1</v>
-      </c>
-      <c r="T4" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y4" s="6">
-        <v>-1</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE4" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>5003</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>103</v>
       </c>
       <c r="C5" s="1">
@@ -1385,16 +1159,16 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
-        <v>2000</v>
+      <c r="E5" s="4">
+        <v>-1</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="4">
         <v>-1</v>
       </c>
       <c r="I5" s="1">
@@ -1403,16 +1177,16 @@
       <c r="J5" s="1">
         <v>-1</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>-1</v>
       </c>
       <c r="L5" s="1">
         <v>-1</v>
       </c>
-      <c r="M5" s="6">
-        <v>-1</v>
-      </c>
-      <c r="N5" s="5">
+      <c r="M5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="4">
         <v>-1</v>
       </c>
       <c r="O5" s="1">
@@ -1421,57 +1195,12 @@
       <c r="P5" s="1">
         <v>-1</v>
       </c>
-      <c r="Q5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S5" s="6">
-        <v>-1</v>
-      </c>
-      <c r="T5" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y5" s="6">
-        <v>-1</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE5" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5004</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>104</v>
       </c>
       <c r="C6" s="1">
@@ -1480,16 +1209,16 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
-        <v>2000</v>
+      <c r="E6" s="4">
+        <v>-1</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="4">
         <v>-1</v>
       </c>
       <c r="I6" s="1">
@@ -1498,16 +1227,16 @@
       <c r="J6" s="1">
         <v>-1</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>-1</v>
       </c>
       <c r="L6" s="1">
         <v>-1</v>
       </c>
-      <c r="M6" s="6">
-        <v>-1</v>
-      </c>
-      <c r="N6" s="5">
+      <c r="M6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="4">
         <v>-1</v>
       </c>
       <c r="O6" s="1">
@@ -1516,57 +1245,12 @@
       <c r="P6" s="1">
         <v>-1</v>
       </c>
-      <c r="Q6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S6" s="6">
-        <v>-1</v>
-      </c>
-      <c r="T6" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y6" s="6">
-        <v>-1</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE6" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5005</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>100</v>
       </c>
       <c r="C7" s="1">
@@ -1575,16 +1259,16 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
-        <v>2000</v>
+      <c r="E7" s="4">
+        <v>100</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
         <v>100</v>
       </c>
       <c r="I7" s="1">
@@ -1593,16 +1277,16 @@
       <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="1">
-        <v>2000</v>
+      <c r="K7" s="4">
+        <v>100</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>1</v>
-      </c>
-      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
         <v>100</v>
       </c>
       <c r="O7" s="1">
@@ -1611,57 +1295,12 @@
       <c r="P7" s="1">
         <v>1</v>
       </c>
-      <c r="Q7" s="1">
-        <v>2000</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="6">
-        <v>1</v>
-      </c>
-      <c r="T7" s="5">
-        <v>100</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1</v>
-      </c>
-      <c r="V7" s="1">
-        <v>1</v>
-      </c>
-      <c r="W7" s="1">
-        <v>2000</v>
-      </c>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>100</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>2000</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5006</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>100</v>
       </c>
       <c r="C8" s="1">
@@ -1670,34 +1309,34 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
-        <v>2000</v>
+      <c r="E8" s="4">
+        <v>100</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-1</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="4">
         <v>-1</v>
       </c>
       <c r="L8" s="1">
         <v>-1</v>
       </c>
-      <c r="M8" s="6">
-        <v>-1</v>
-      </c>
-      <c r="N8" s="5">
+      <c r="M8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="4">
         <v>-1</v>
       </c>
       <c r="O8" s="1">
@@ -1706,57 +1345,12 @@
       <c r="P8" s="1">
         <v>-1</v>
       </c>
-      <c r="Q8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S8" s="6">
-        <v>-1</v>
-      </c>
-      <c r="T8" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>-1</v>
-      </c>
-      <c r="Z8" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE8" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5007</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>100</v>
       </c>
       <c r="C9" s="1">
@@ -1765,16 +1359,16 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
-        <v>2000</v>
+      <c r="E9" s="4">
+        <v>100</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
         <v>100</v>
       </c>
       <c r="I9" s="1">
@@ -1783,75 +1377,30 @@
       <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>-1</v>
       </c>
       <c r="L9" s="1">
         <v>-1</v>
       </c>
-      <c r="M9" s="6">
-        <v>-1</v>
-      </c>
-      <c r="N9" s="5">
-        <v>100</v>
+      <c r="M9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="4">
+        <v>-1</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S9" s="6">
-        <v>-1</v>
-      </c>
-      <c r="T9" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>-1</v>
-      </c>
-      <c r="Z9" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE9" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>5008</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>100</v>
       </c>
       <c r="C10" s="1">
@@ -1860,16 +1409,16 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
-        <v>2000</v>
+      <c r="E10" s="4">
+        <v>100</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
         <v>100</v>
       </c>
       <c r="I10" s="1">
@@ -1878,75 +1427,30 @@
       <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="1">
-        <v>-1</v>
+      <c r="K10" s="4">
+        <v>100</v>
       </c>
       <c r="L10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M10" s="6">
-        <v>-1</v>
-      </c>
-      <c r="N10" s="5">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>-1</v>
       </c>
       <c r="O10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S10" s="6">
-        <v>-1</v>
-      </c>
-      <c r="T10" s="5">
-        <v>100</v>
-      </c>
-      <c r="U10" s="1">
-        <v>1</v>
-      </c>
-      <c r="V10" s="1">
-        <v>1</v>
-      </c>
-      <c r="W10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y10" s="6">
-        <v>-1</v>
-      </c>
-      <c r="Z10" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE10" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5009</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>100</v>
       </c>
       <c r="C11" s="1">
@@ -1955,16 +1459,16 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
-        <v>2000</v>
+      <c r="E11" s="4">
+        <v>100</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
         <v>100</v>
       </c>
       <c r="I11" s="1">
@@ -1973,16 +1477,16 @@
       <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="1">
-        <v>-1</v>
+      <c r="K11" s="4">
+        <v>100</v>
       </c>
       <c r="L11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M11" s="6">
-        <v>-1</v>
-      </c>
-      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4">
         <v>100</v>
       </c>
       <c r="O11" s="1">
@@ -1991,57 +1495,12 @@
       <c r="P11" s="1">
         <v>1</v>
       </c>
-      <c r="Q11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S11" s="6">
-        <v>-1</v>
-      </c>
-      <c r="T11" s="5">
-        <v>100</v>
-      </c>
-      <c r="U11" s="1">
-        <v>1</v>
-      </c>
-      <c r="V11" s="1">
-        <v>1</v>
-      </c>
-      <c r="W11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y11" s="6">
-        <v>-1</v>
-      </c>
-      <c r="Z11" s="5">
-        <v>100</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE11" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>5010</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>101</v>
       </c>
       <c r="C12" s="1">
@@ -2050,17 +1509,17 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1">
-        <v>2000</v>
+      <c r="E12" s="4">
+        <v>102</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>102</v>
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>100</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -2068,16 +1527,16 @@
       <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="K12" s="1">
-        <v>-1</v>
+      <c r="K12" s="4">
+        <v>100</v>
       </c>
       <c r="L12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M12" s="6">
-        <v>-1</v>
-      </c>
-      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4">
         <v>100</v>
       </c>
       <c r="O12" s="1">
@@ -2086,57 +1545,12 @@
       <c r="P12" s="1">
         <v>1</v>
       </c>
-      <c r="Q12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S12" s="6">
-        <v>-1</v>
-      </c>
-      <c r="T12" s="5">
-        <v>100</v>
-      </c>
-      <c r="U12" s="1">
-        <v>1</v>
-      </c>
-      <c r="V12" s="1">
-        <v>1</v>
-      </c>
-      <c r="W12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y12" s="6">
-        <v>-1</v>
-      </c>
-      <c r="Z12" s="5">
-        <v>100</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE12" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>5011</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>101</v>
       </c>
       <c r="C13" s="1">
@@ -2145,17 +1559,17 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1">
-        <v>2000</v>
+      <c r="E13" s="4">
+        <v>102</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
-        <v>102</v>
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>103</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -2163,17 +1577,17 @@
       <c r="J13" s="1">
         <v>1</v>
       </c>
-      <c r="K13" s="1">
-        <v>-1</v>
+      <c r="K13" s="4">
+        <v>104</v>
       </c>
       <c r="L13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M13" s="6">
-        <v>-1</v>
-      </c>
-      <c r="N13" s="5">
-        <v>103</v>
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4">
+        <v>100</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
@@ -2181,57 +1595,12 @@
       <c r="P13" s="1">
         <v>1</v>
       </c>
-      <c r="Q13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S13" s="6">
-        <v>-1</v>
-      </c>
-      <c r="T13" s="5">
-        <v>104</v>
-      </c>
-      <c r="U13" s="1">
-        <v>1</v>
-      </c>
-      <c r="V13" s="1">
-        <v>1</v>
-      </c>
-      <c r="W13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>-1</v>
-      </c>
-      <c r="Z13" s="5">
-        <v>100</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE13" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>5012</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>101</v>
       </c>
       <c r="C14" s="1">
@@ -2240,17 +1609,17 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="1">
-        <v>2000</v>
+      <c r="E14" s="4">
+        <v>100</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>102</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -2258,17 +1627,17 @@
       <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="K14" s="1">
-        <v>-1</v>
+      <c r="K14" s="4">
+        <v>102</v>
       </c>
       <c r="L14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M14" s="6">
-        <v>-1</v>
-      </c>
-      <c r="N14" s="5">
-        <v>102</v>
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4">
+        <v>104</v>
       </c>
       <c r="O14" s="1">
         <v>1</v>
@@ -2276,57 +1645,12 @@
       <c r="P14" s="1">
         <v>1</v>
       </c>
-      <c r="Q14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S14" s="6">
-        <v>-1</v>
-      </c>
-      <c r="T14" s="5">
-        <v>102</v>
-      </c>
-      <c r="U14" s="1">
-        <v>1</v>
-      </c>
-      <c r="V14" s="1">
-        <v>1</v>
-      </c>
-      <c r="W14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y14" s="6">
-        <v>-1</v>
-      </c>
-      <c r="Z14" s="5">
-        <v>104</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE14" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>5999</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>100</v>
       </c>
       <c r="C15" s="1">
@@ -2335,17 +1659,17 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1">
-        <v>-1</v>
+      <c r="E15" s="4">
+        <v>101</v>
       </c>
       <c r="F15" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H15" s="5">
-        <v>101</v>
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>102</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -2353,7 +1677,7 @@
       <c r="J15" s="1">
         <v>1</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>-1</v>
       </c>
       <c r="L15" s="1">
@@ -2362,58 +1686,13 @@
       <c r="M15" s="1">
         <v>-1</v>
       </c>
-      <c r="N15" s="5">
-        <v>102</v>
+      <c r="N15" s="4">
+        <v>-1</v>
       </c>
       <c r="O15" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T15" s="5">
-        <v>-1</v>
-      </c>
-      <c r="U15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y15" s="6">
-        <v>-1</v>
-      </c>
-      <c r="Z15" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE15" s="6">
         <v>-1</v>
       </c>
     </row>

--- a/Portfolio_2D/Assets/05. DataTable/MapDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/MapDataTable.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DA5386-BB17-4EBF-A4B4-374741951924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MapData" sheetId="1" r:id="rId1"/>
@@ -170,7 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,10 +528,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3:M9"/>
     </sheetView>
   </sheetViews>
@@ -924,11 +923,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:S1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1651,7 +1650,7 @@
         <v>5999</v>
       </c>
       <c r="B15" s="4">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -1660,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="4">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -1669,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="4">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
